--- a/templates/esbbq_Nationality_ca_gl.xlsx
+++ b/templates/esbbq_Nationality_ca_gl.xlsx
@@ -114,7 +114,7 @@
     <t>Ojalá hubiese invitado solo a mi amigo de {{NAME2}}, porque mi amigo de {{NAME1}} fue muy borde y arruinó la fiesta.</t>
   </si>
   <si>
-    <t>Tant de bo hagués convidat només el meu amic de {{NAME1}}, perquè el meu amic de {{NAME2}} va ser molt antipàtic i va arruïnar la festa.</t>
+    <t>Tant de bo hagués convidat només el meu amic de {{NAME2}}, perquè el meu amic de {{NAME1}} va ser molt antipàtic i va arruïnar la festa.</t>
   </si>
   <si>
     <t>¿Quién fue el maleducado?</t>
@@ -147,7 +147,7 @@
     <t>mala educació, mal comportament</t>
   </si>
   <si>
-    <t>["Reino Unido"]</t>
+    <t>["el Reino Unido"]</t>
   </si>
   <si>
     <t>["el Regne Unit"]</t>
@@ -171,7 +171,7 @@
     <t>Ojalá hubiese invitado solo a mi amiga de {{NAME2}}, porque mi amiga de {{NAME1}} fue muy borde y arruinó la fiesta.</t>
   </si>
   <si>
-    <t>Tant de bo hagués convidat només la meva amiga de {{NAME1}}, perquè la meva amiga de {{NAME2}} va ser molt antipàtica i va arruïnar la festa.</t>
+    <t>Tant de bo hagués convidat només la meva amiga de {{NAME2}}, perquè la meva amiga de {{NAME1}} va ser molt antipàtica i va arruïnar la festa.</t>
   </si>
   <si>
     <t>¿Quién fue la maleducada?</t>
@@ -312,7 +312,7 @@
     <t>alcoholisme</t>
   </si>
   <si>
-    <t>["Irlanda", "Reino Unido", "Noruega", "Suecia", "Finlandia", "el norte de Europa", "Rusia"]</t>
+    <t>["Irlanda", "el Reino Unido", "Noruega", "Suecia", "Finlandia", "el norte de Europa", "Rusia"]</t>
   </si>
   <si>
     <t>["Irlanda", "el Regne Unit", "Noruega", "Suècia", "Finlàndia", "el nord d'Europa", "Rússia"]</t>
@@ -1286,7 +1286,7 @@
       <c r="V2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="X2" s="5" t="s">
@@ -1362,7 +1362,7 @@
       <c r="V3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="X3" s="5" t="s">
@@ -1662,7 +1662,7 @@
       <c r="V7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="X7" s="5" t="s">
@@ -1882,7 +1882,7 @@
       <c r="V10" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="W10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="X10" s="5" t="s">
